--- a/static/download/2021/RP3_APT_ATC_PRE_2021_Jan_Dec.xlsx
+++ b/static/download/2021/RP3_APT_ATC_PRE_2021_Jan_Dec.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="130">
   <si>
     <t>Data source</t>
   </si>
@@ -80,7 +80,7 @@
     <t>Belgium</t>
   </si>
   <si>
-    <t>Berlin/ Schoenefeld (EDDB)</t>
+    <t>Berlin Brandenburg (EDDB)</t>
   </si>
   <si>
     <t>EDDB</t>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t>UK airports removed</t>
+  </si>
+  <si>
+    <t>Airports updated with validated annual figures</t>
   </si>
 </sst>
 </file>
@@ -619,6 +622,9 @@
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -627,9 +633,6 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,16 +661,16 @@
       <selection activeCell="B7" sqref="B7" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.71"/>
-    <col customWidth="1" min="2" max="2" width="14.43"/>
-    <col customWidth="1" min="3" max="3" width="13.71"/>
-    <col customWidth="1" min="4" max="4" width="16.0"/>
-    <col customWidth="1" min="5" max="5" width="21.57"/>
-    <col customWidth="1" min="6" max="6" width="17.43"/>
-    <col customWidth="1" min="7" max="8" width="22.43"/>
-    <col customWidth="1" min="9" max="9" width="17.43"/>
+    <col customWidth="1" min="1" max="1" width="19.0"/>
+    <col customWidth="1" min="2" max="2" width="12.63"/>
+    <col customWidth="1" min="3" max="3" width="12.0"/>
+    <col customWidth="1" min="4" max="4" width="14.0"/>
+    <col customWidth="1" min="5" max="5" width="18.88"/>
+    <col customWidth="1" min="6" max="6" width="15.25"/>
+    <col customWidth="1" min="7" max="8" width="19.63"/>
+    <col customWidth="1" min="9" max="9" width="15.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -782,16 +785,9 @@
       <c r="C6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="20">
-        <v>46630.0</v>
-      </c>
-      <c r="E6" s="20">
-        <v>25767.0</v>
-      </c>
-      <c r="F6" s="21">
-        <f t="shared" ref="F6:F9" si="1">E6/D6</f>
-        <v>0.5525841733</v>
-      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="20">
         <v>58030.0</v>
       </c>
@@ -799,7 +795,7 @@
         <v>887409.0</v>
       </c>
       <c r="I6" s="21">
-        <f t="shared" ref="I6:I17" si="2">H6/G6</f>
+        <f t="shared" ref="I6:I17" si="1">H6/G6</f>
         <v>15.29224539</v>
       </c>
     </row>
@@ -820,7 +816,7 @@
         <v>16478.0</v>
       </c>
       <c r="F7" s="21">
-        <f t="shared" si="1"/>
+        <f>E7/D7</f>
         <v>0.3155979468</v>
       </c>
       <c r="G7" s="20">
@@ -830,7 +826,7 @@
         <v>643232.76</v>
       </c>
       <c r="I7" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12.31963457</v>
       </c>
     </row>
@@ -844,16 +840,9 @@
       <c r="C8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="20">
-        <v>78217.0</v>
-      </c>
-      <c r="E8" s="20">
-        <v>17949.0</v>
-      </c>
-      <c r="F8" s="21">
-        <f t="shared" si="1"/>
-        <v>0.2294769679</v>
-      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="20">
         <v>130869.0</v>
       </c>
@@ -861,7 +850,7 @@
         <v>2667050.67</v>
       </c>
       <c r="I8" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20.37954496</v>
       </c>
     </row>
@@ -875,16 +864,9 @@
       <c r="C9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="20">
-        <v>25404.0</v>
-      </c>
-      <c r="E9" s="20">
-        <v>3860.0</v>
-      </c>
-      <c r="F9" s="21">
-        <f t="shared" si="1"/>
-        <v>0.1519445757</v>
-      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="20">
         <v>30521.0</v>
       </c>
@@ -892,7 +874,7 @@
         <v>312456.7</v>
       </c>
       <c r="I9" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.23743324</v>
       </c>
     </row>
@@ -910,14 +892,14 @@
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
       <c r="G10" s="20">
-        <v>44143.0</v>
+        <v>44144.0</v>
       </c>
       <c r="H10" s="20">
         <v>736369.17</v>
       </c>
       <c r="I10" s="21">
-        <f t="shared" si="2"/>
-        <v>16.68144825</v>
+        <f t="shared" si="1"/>
+        <v>16.68107036</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -937,7 +919,7 @@
         <v>1082.0</v>
       </c>
       <c r="F11" s="21">
-        <f t="shared" ref="F11:F14" si="3">E11/D11</f>
+        <f>E11/D11</f>
         <v>0.02766697351</v>
       </c>
       <c r="G11" s="20">
@@ -947,7 +929,7 @@
         <v>472678.35</v>
       </c>
       <c r="I11" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11.5713567</v>
       </c>
     </row>
@@ -961,16 +943,9 @@
       <c r="C12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="20">
-        <v>65193.0</v>
-      </c>
-      <c r="E12" s="20">
-        <v>5365.0</v>
-      </c>
-      <c r="F12" s="21">
-        <f t="shared" si="3"/>
-        <v>0.08229411133</v>
-      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="20">
         <v>75156.0</v>
       </c>
@@ -978,7 +953,7 @@
         <v>679503.0</v>
       </c>
       <c r="I12" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.041234233</v>
       </c>
     </row>
@@ -992,16 +967,9 @@
       <c r="C13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="20">
-        <v>20321.0</v>
-      </c>
-      <c r="E13" s="20">
-        <v>355.0</v>
-      </c>
-      <c r="F13" s="21">
-        <f t="shared" si="3"/>
-        <v>0.01746961272</v>
-      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="20">
         <v>26232.0</v>
       </c>
@@ -1009,7 +977,7 @@
         <v>237395.59</v>
       </c>
       <c r="I13" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.049847133</v>
       </c>
     </row>
@@ -1023,16 +991,9 @@
       <c r="C14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="20">
-        <v>24652.0</v>
-      </c>
-      <c r="E14" s="20">
-        <v>2736.0</v>
-      </c>
-      <c r="F14" s="21">
-        <f t="shared" si="3"/>
-        <v>0.1109849099</v>
-      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="20">
         <v>35857.0</v>
       </c>
@@ -1040,7 +1001,7 @@
         <v>396995.17</v>
       </c>
       <c r="I14" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11.07162256</v>
       </c>
     </row>
@@ -1064,7 +1025,7 @@
         <v>2845528.62</v>
       </c>
       <c r="I15" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20.40244225</v>
       </c>
     </row>
@@ -1088,7 +1049,7 @@
         <v>313311.0</v>
       </c>
       <c r="I16" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.875076802</v>
       </c>
     </row>
@@ -1119,7 +1080,7 @@
         <v>529176.11</v>
       </c>
       <c r="I17" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.631014833</v>
       </c>
     </row>
@@ -1157,7 +1118,7 @@
         <v>3495.0</v>
       </c>
       <c r="F19" s="21">
-        <f>E19/D19</f>
+        <f t="shared" ref="F19:F21" si="2">E19/D19</f>
         <v>0.05669375639</v>
       </c>
       <c r="G19" s="20">
@@ -1167,7 +1128,7 @@
         <v>415467.0</v>
       </c>
       <c r="I19" s="21">
-        <f t="shared" ref="I19:I47" si="4">H19/G19</f>
+        <f t="shared" ref="I19:I47" si="3">H19/G19</f>
         <v>6.739452041</v>
       </c>
     </row>
@@ -1188,8 +1149,8 @@
         <v>25369.0</v>
       </c>
       <c r="F20" s="21">
-        <f>E19/D20</f>
-        <v>0.08114320208</v>
+        <f t="shared" si="2"/>
+        <v>0.5889905275</v>
       </c>
       <c r="G20" s="20">
         <v>47390.0</v>
@@ -1198,7 +1159,7 @@
         <v>597718.71</v>
       </c>
       <c r="I20" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12.61276029</v>
       </c>
     </row>
@@ -1219,7 +1180,7 @@
         <v>5906.0</v>
       </c>
       <c r="F21" s="21">
-        <f t="shared" ref="F21:F24" si="5">E21/D21</f>
+        <f t="shared" si="2"/>
         <v>0.1299106946</v>
       </c>
       <c r="G21" s="20">
@@ -1229,7 +1190,7 @@
         <v>521951.05</v>
       </c>
       <c r="I21" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11.48104021</v>
       </c>
     </row>
@@ -1243,16 +1204,9 @@
       <c r="C22" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="20">
-        <v>6407.0</v>
-      </c>
-      <c r="E22" s="20">
-        <v>2099.0</v>
-      </c>
-      <c r="F22" s="21">
-        <f t="shared" si="5"/>
-        <v>0.3276104261</v>
-      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="20">
         <v>39907.0</v>
       </c>
@@ -1260,7 +1214,7 @@
         <v>375795.27</v>
       </c>
       <c r="I22" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.416775754</v>
       </c>
     </row>
@@ -1274,16 +1228,9 @@
       <c r="C23" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="20">
-        <v>23257.0</v>
-      </c>
-      <c r="E23" s="20">
-        <v>5817.0</v>
-      </c>
-      <c r="F23" s="21">
-        <f t="shared" si="5"/>
-        <v>0.250118244</v>
-      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="20">
         <v>25531.0</v>
       </c>
@@ -1291,7 +1238,7 @@
         <v>205698.07</v>
       </c>
       <c r="I23" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.056796444</v>
       </c>
     </row>
@@ -1305,16 +1252,9 @@
       <c r="C24" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="20">
-        <v>8869.0</v>
-      </c>
-      <c r="E24" s="20">
-        <v>3075.0</v>
-      </c>
-      <c r="F24" s="21">
-        <f t="shared" si="5"/>
-        <v>0.3467132709</v>
-      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="20">
         <v>81151.0</v>
       </c>
@@ -1322,7 +1262,7 @@
         <v>671444.77</v>
       </c>
       <c r="I24" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.274017202</v>
       </c>
     </row>
@@ -1346,7 +1286,7 @@
         <v>1038623.6</v>
       </c>
       <c r="I25" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.682330568</v>
       </c>
     </row>
@@ -1370,7 +1310,7 @@
         <v>468758.02</v>
       </c>
       <c r="I26" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10.86043325</v>
       </c>
     </row>
@@ -1394,7 +1334,7 @@
         <v>567630.97</v>
       </c>
       <c r="I27" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.19695548</v>
       </c>
     </row>
@@ -1408,16 +1348,9 @@
       <c r="C28" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="20">
-        <v>16897.0</v>
-      </c>
-      <c r="E28" s="20">
-        <v>4998.0</v>
-      </c>
-      <c r="F28" s="21">
-        <f t="shared" ref="F28:F31" si="6">E28/D28</f>
-        <v>0.2957921525</v>
-      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="20">
         <v>21140.0</v>
       </c>
@@ -1425,7 +1358,7 @@
         <v>175074.0</v>
       </c>
       <c r="I28" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.281646168</v>
       </c>
     </row>
@@ -1446,7 +1379,7 @@
         <v>5733.0</v>
       </c>
       <c r="F29" s="21">
-        <f t="shared" si="6"/>
+        <f>E29/D29</f>
         <v>0.2208312469</v>
       </c>
       <c r="G29" s="20">
@@ -1456,7 +1389,7 @@
         <v>325049.0</v>
       </c>
       <c r="I29" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11.87697311</v>
       </c>
     </row>
@@ -1470,16 +1403,9 @@
       <c r="C30" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="20">
-        <v>13072.0</v>
-      </c>
-      <c r="E30" s="20">
-        <v>1512.0</v>
-      </c>
-      <c r="F30" s="21">
-        <f t="shared" si="6"/>
-        <v>0.1156670747</v>
-      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="20">
         <v>28962.0</v>
       </c>
@@ -1487,7 +1413,7 @@
         <v>287910.0</v>
       </c>
       <c r="I30" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.940957116</v>
       </c>
     </row>
@@ -1508,7 +1434,7 @@
         <v>17915.0</v>
       </c>
       <c r="F31" s="21">
-        <f t="shared" si="6"/>
+        <f>E31/D31</f>
         <v>0.3802721233</v>
       </c>
       <c r="G31" s="20">
@@ -1518,7 +1444,7 @@
         <v>495485.0</v>
       </c>
       <c r="I31" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10.51739509</v>
       </c>
     </row>
@@ -1536,14 +1462,14 @@
       <c r="E32" s="20"/>
       <c r="F32" s="21"/>
       <c r="G32" s="20">
-        <v>127976.0</v>
+        <v>127977.0</v>
       </c>
       <c r="H32" s="20">
-        <v>2186514.0</v>
+        <v>2186554.0</v>
       </c>
       <c r="I32" s="21">
-        <f t="shared" si="4"/>
-        <v>17.08534413</v>
+        <f t="shared" si="3"/>
+        <v>17.08552318</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
@@ -1563,7 +1489,7 @@
         <v>29605.0</v>
       </c>
       <c r="F33" s="21">
-        <f t="shared" ref="F33:F40" si="7">E33/D33</f>
+        <f>E33/D33</f>
         <v>0.5432907583</v>
       </c>
       <c r="G33" s="20">
@@ -1573,7 +1499,7 @@
         <v>751273.0</v>
       </c>
       <c r="I33" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12.45830224</v>
       </c>
     </row>
@@ -1587,16 +1513,9 @@
       <c r="C34" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="20">
-        <v>10855.0</v>
-      </c>
-      <c r="E34" s="20">
-        <v>11293.0</v>
-      </c>
-      <c r="F34" s="21">
-        <f t="shared" si="7"/>
-        <v>1.040350069</v>
-      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="20">
         <v>76529.0</v>
       </c>
@@ -1604,7 +1523,7 @@
         <v>987195.14</v>
       </c>
       <c r="I34" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12.89962158</v>
       </c>
     </row>
@@ -1619,24 +1538,24 @@
         <v>91</v>
       </c>
       <c r="D35" s="20">
-        <v>27128.0</v>
+        <v>27129.0</v>
       </c>
       <c r="E35" s="20">
         <v>3854.0</v>
       </c>
       <c r="F35" s="21">
-        <f t="shared" si="7"/>
-        <v>0.1420672368</v>
+        <f>E35/D35</f>
+        <v>0.1420620001</v>
       </c>
       <c r="G35" s="20">
-        <v>27128.0</v>
+        <v>27129.0</v>
       </c>
       <c r="H35" s="20">
-        <v>423395.25</v>
+        <v>423442.25</v>
       </c>
       <c r="I35" s="21">
-        <f t="shared" si="4"/>
-        <v>15.60731532</v>
+        <f t="shared" si="3"/>
+        <v>15.60847248</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
@@ -1649,25 +1568,18 @@
       <c r="C36" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="20">
-        <v>43450.0</v>
-      </c>
-      <c r="E36" s="20">
-        <v>37736.0</v>
-      </c>
-      <c r="F36" s="21">
-        <f t="shared" si="7"/>
-        <v>0.8684925201</v>
-      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="20">
-        <v>59092.0</v>
+        <v>59094.0</v>
       </c>
       <c r="H36" s="20">
         <v>1190377.33</v>
       </c>
       <c r="I36" s="21">
-        <f t="shared" si="4"/>
-        <v>20.14447523</v>
+        <f t="shared" si="3"/>
+        <v>20.14379345</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
@@ -1687,7 +1599,7 @@
         <v>19874.0</v>
       </c>
       <c r="F37" s="21">
-        <f t="shared" si="7"/>
+        <f>E37/D37</f>
         <v>0.7675729955</v>
       </c>
       <c r="G37" s="20">
@@ -1697,7 +1609,7 @@
         <v>324382.23</v>
       </c>
       <c r="I37" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12.52828016</v>
       </c>
     </row>
@@ -1711,16 +1623,9 @@
       <c r="C38" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="20">
-        <v>11204.0</v>
-      </c>
-      <c r="E38" s="20">
-        <v>1954.0</v>
-      </c>
-      <c r="F38" s="21">
-        <f t="shared" si="7"/>
-        <v>0.1744019993</v>
-      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="20">
         <v>33075.0</v>
       </c>
@@ -1728,7 +1633,7 @@
         <v>257616.46</v>
       </c>
       <c r="I38" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.788857445</v>
       </c>
     </row>
@@ -1749,7 +1654,7 @@
         <v>13398.0</v>
       </c>
       <c r="F39" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F39:F40" si="4">E39/D39</f>
         <v>0.7526966292</v>
       </c>
       <c r="G39" s="20">
@@ -1759,7 +1664,7 @@
         <v>233910.0</v>
       </c>
       <c r="I39" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11.96776669</v>
       </c>
     </row>
@@ -1780,7 +1685,7 @@
         <v>50822.0</v>
       </c>
       <c r="F40" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.8942497185</v>
       </c>
       <c r="G40" s="20">
@@ -1790,7 +1695,7 @@
         <v>524149.0</v>
       </c>
       <c r="I40" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.22277942</v>
       </c>
     </row>
@@ -1814,7 +1719,7 @@
         <v>231507.0</v>
       </c>
       <c r="I41" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.322500629</v>
       </c>
     </row>
@@ -1835,7 +1740,7 @@
         <v>39991.0</v>
       </c>
       <c r="F42" s="21">
-        <f t="shared" ref="F42:F47" si="8">E42/D42</f>
+        <f>E42/D42</f>
         <v>0.6263371392</v>
       </c>
       <c r="G42" s="20">
@@ -1845,7 +1750,7 @@
         <v>622735.0</v>
       </c>
       <c r="I42" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.75324594</v>
       </c>
     </row>
@@ -1859,16 +1764,9 @@
       <c r="C43" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="20">
-        <v>22489.0</v>
-      </c>
-      <c r="E43" s="20">
-        <v>6795.0</v>
-      </c>
-      <c r="F43" s="21">
-        <f t="shared" si="8"/>
-        <v>0.3021477167</v>
-      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
       <c r="G43" s="20">
         <v>26985.0</v>
       </c>
@@ -1876,7 +1774,7 @@
         <v>288651.03</v>
       </c>
       <c r="I43" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10.69672151</v>
       </c>
     </row>
@@ -1897,7 +1795,7 @@
         <v>70598.0</v>
       </c>
       <c r="F44" s="21">
-        <f t="shared" si="8"/>
+        <f>E44/D44</f>
         <v>1.221989511</v>
       </c>
       <c r="G44" s="20">
@@ -1907,7 +1805,7 @@
         <v>637360.94</v>
       </c>
       <c r="I44" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11.03215931</v>
       </c>
     </row>
@@ -1921,16 +1819,9 @@
       <c r="C45" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="20">
-        <v>16820.0</v>
-      </c>
-      <c r="E45" s="20">
-        <v>7377.0</v>
-      </c>
-      <c r="F45" s="21">
-        <f t="shared" si="8"/>
-        <v>0.4385850178</v>
-      </c>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
       <c r="G45" s="20">
         <v>36029.0</v>
       </c>
@@ -1938,7 +1829,7 @@
         <v>448416.0</v>
       </c>
       <c r="I45" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12.44597408</v>
       </c>
     </row>
@@ -1952,16 +1843,9 @@
       <c r="C46" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D46" s="20">
-        <v>30211.0</v>
-      </c>
-      <c r="E46" s="20">
-        <v>5922.0</v>
-      </c>
-      <c r="F46" s="21">
-        <f t="shared" si="8"/>
-        <v>0.1960213167</v>
-      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21"/>
       <c r="G46" s="20">
         <v>45706.0</v>
       </c>
@@ -1969,7 +1853,7 @@
         <v>412651.87</v>
       </c>
       <c r="I46" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.028396053</v>
       </c>
     </row>
@@ -1990,7 +1874,7 @@
         <v>24283.0</v>
       </c>
       <c r="F47" s="21">
-        <f t="shared" si="8"/>
+        <f>E47/D47</f>
         <v>0.3870170853</v>
       </c>
       <c r="G47" s="20">
@@ -2000,7 +1884,7 @@
         <v>606011.25</v>
       </c>
       <c r="I47" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.65847332</v>
       </c>
     </row>
@@ -2017,12 +1901,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.57"/>
-    <col customWidth="1" min="2" max="2" width="5.0"/>
-    <col customWidth="1" min="3" max="3" width="11.57"/>
-    <col customWidth="1" min="4" max="4" width="119.0"/>
+    <col customWidth="1" min="1" max="1" width="11.0"/>
+    <col customWidth="1" min="2" max="2" width="4.38"/>
+    <col customWidth="1" min="3" max="3" width="10.13"/>
+    <col customWidth="1" min="4" max="4" width="104.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -2064,16 +1948,24 @@
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="28">
+        <v>44665.0</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2021.0</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
